--- a/Data/Profissões Regulamentadas.xlsx
+++ b/Data/Profissões Regulamentadas.xlsx
@@ -8,28 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/OccupationalLicensingBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF5506-655F-A94B-8FFF-C1E0A1A80B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0F893-DACC-784E-B09D-AB13392DC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="780" windowWidth="22460" windowHeight="19760" xr2:uid="{02105A7B-5168-914C-8F9A-D7FDD8C31F94}"/>
+    <workbookView xWindow="17400" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{02105A7B-5168-914C-8F9A-D7FDD8C31F94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista " sheetId="1" r:id="rId1"/>
+    <sheet name="Lista" sheetId="1" r:id="rId1"/>
     <sheet name="Codes" sheetId="4" r:id="rId2"/>
     <sheet name="Evolução Tempo" sheetId="2" r:id="rId3"/>
     <sheet name="Conselhos" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista '!$H:$H</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Evolução Tempo'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Evolução Tempo'!$A$2:$A$96</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Evolução Tempo'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Evolução Tempo'!$B$2:$B$96</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Evolução Tempo'!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Evolução Tempo'!$A$2:$A$96</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Evolução Tempo'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Evolução Tempo'!$B$2:$B$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Codes!$A$1:$E$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista!$A$1:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="292">
   <si>
     <t>Occupation</t>
   </si>
@@ -832,9 +825,6 @@
     <t>3132, 3133, 3134, 3135</t>
   </si>
   <si>
-    <t>3141, 3212</t>
-  </si>
-  <si>
     <t>311, 3122</t>
   </si>
   <si>
@@ -902,6 +892,45 @@
   </si>
   <si>
     <t>Serviço Nacional de Fiscalização da Medicina (now extinguished)</t>
+  </si>
+  <si>
+    <t>Junta Comercial</t>
+  </si>
+  <si>
+    <t>Associação Produtores Rurais</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>Superintendência de Seguros Privados (Susep)</t>
+  </si>
+  <si>
+    <t>Ordem dos Músicos do Brasil?</t>
+  </si>
+  <si>
+    <t>Sistema Pesq Brasil, Ministério da Pesca </t>
+  </si>
+  <si>
+    <t>https://www.gov.br/mpa/pt-br/assuntos/cadastro-registro-e-monitoramento/pescador-e-pescadora-profissional/lancamento-do-novo-sistema-para-cadastramento-e-recadastramento-de-pescadores-e-pescadoras/cadastramento-e-recadastramento-de-pescador-profissional</t>
+  </si>
+  <si>
+    <t>2635, 3412</t>
+  </si>
+  <si>
+    <t>3331, 3339</t>
+  </si>
+  <si>
+    <t>3422, 3423</t>
+  </si>
+  <si>
+    <t>2131, 3141</t>
+  </si>
+  <si>
+    <t>3212, 2263, 2269</t>
+  </si>
+  <si>
+    <t>Lei nº 8.623, de 28 de janeiro de 1993.</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,11 +1064,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2781,23 +2807,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209D6F3-44E8-1C48-8867-15FFCE46FDEB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="231.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -2814,138 +2839,115 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="B2">
-        <v>1965</v>
+        <v>2023</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="G2">
-        <f>IF(H2=1,1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="B3">
-        <v>1930</v>
+        <v>2021</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G43" si="0">IF(H3=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>1984</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>275</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="B5">
-        <v>1965</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B6">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6">
@@ -2954,278 +2956,221 @@
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="B7">
-        <v>1966</v>
+        <v>2018</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>1966</v>
+        <v>2013</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="B9">
-        <v>1978</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>60</v>
+        <v>2012</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="B10">
-        <v>1978</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>60</v>
+        <v>2012</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B11">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="B12">
-        <v>1976</v>
+        <v>2011</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>1969</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>2010</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="B14">
-        <v>1962</v>
+        <v>2010</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="B15">
-        <v>1979</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>1979</v>
+        <v>2009</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>2009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="B18">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3234,18 +3179,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B19">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3253,162 +3198,148 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B21">
-        <v>1946</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>2002</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>IF(H21=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="B22">
-        <v>1978</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>IF(H22=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="B23">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>166</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B24">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>IF(H24=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>2002</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>218</v>
+        <v>1993</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>IF(H25=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B26">
-        <v>1951</v>
+        <v>1987</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26">
@@ -3432,7 +3363,7 @@
         <v>85</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>IF(H27=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H27">
@@ -3442,312 +3373,352 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>IF(H28=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>1972</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>96</v>
+        <v>1985</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B30">
-        <v>1973</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>1985</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>1985</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1985</v>
+      </c>
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>1984</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33">
+        <f>IF(H33=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34">
+        <v>1984</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32">
-        <v>1966</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35">
+        <v>1981</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33">
-        <v>2007</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34">
-        <v>1965</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35">
-        <v>2018</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>220</v>
+      <c r="F35" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>275</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="G36">
+        <f>IF(H36=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>2018</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>214</v>
+        <v>1980</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B38">
-        <v>1969</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
+        <v>1979</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="G38">
+        <f>IF(H38=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="B39">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="G39">
+        <f>IF(H39=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B40">
-        <v>2008</v>
+        <v>1979</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B41">
         <v>1979</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3756,117 +3727,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>1962</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>58</v>
+        <v>1978</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>275</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G42">
+        <f>IF(H42=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>IF(H43=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>2020</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
+        <v>1978</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G44">
+        <f>IF(H44=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B45">
-        <v>2010</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>128</v>
+        <v>1978</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>1978</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
         <v>275</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>1969</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>276</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>60</v>
@@ -3878,15 +3860,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>1932</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>130</v>
+        <v>1978</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3895,15 +3886,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>1961</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>131</v>
+        <v>1978</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3914,154 +3914,166 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>1987</v>
+        <v>1976</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>1961</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>136</v>
+        <v>1975</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="G50">
+        <f>IF(H50=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B51">
-        <v>1968</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>140</v>
+        <v>1973</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G51">
+        <f>IF(H51=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B52">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>2009</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>145</v>
+        <v>1969</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G53">
+        <f>IF(H53=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>1984</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>148</v>
+        <v>1969</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>1960</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>151</v>
+        <v>1969</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -4070,24 +4082,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B56">
-        <v>1978</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>154</v>
+        <v>1968</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4096,15 +4108,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B57">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4115,22 +4130,19 @@
     </row>
     <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B58">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -4138,136 +4150,154 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B59">
         <v>1968</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>165</v>
+        <v>212</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60">
-        <v>2001</v>
+        <v>1967</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="E60" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" t="s">
+        <v>284</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B61">
         <v>1967</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>169</v>
+      <c r="C61" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B62">
-        <v>1962</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" t="s">
-        <v>174</v>
+        <v>1966</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="G62">
+        <f>IF(H62=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H62">
         <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>1965</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>1966</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G63">
+        <f>IF(H63=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="B64">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="G64">
+        <f>IF(H64=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H64">
@@ -4276,128 +4306,148 @@
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B65">
-        <v>1978</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
+        <v>1965</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65">
+        <f>IF(H65=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>1965</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66">
-        <v>1967</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="G66">
+        <f>IF(H66=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67">
+        <v>1965</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67">
-        <v>2010</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>187</v>
+      <c r="F67" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>1965</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69">
+        <v>1965</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B69">
-        <v>2023</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="B70">
-        <v>1985</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>1965</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -4406,24 +4456,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>1980</v>
-      </c>
-      <c r="C71" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
+        <v>1964</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>276</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>60</v>
+        <v>274</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -4432,64 +4482,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B72">
-        <v>2011</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>189</v>
+        <v>1964</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="B73">
-        <v>2011</v>
+        <v>1962</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>191</v>
+        <v>54</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="G73">
+        <f>IF(H73=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="B74">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -4498,24 +4558,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B75">
-        <v>1979</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>204</v>
+        <v>1962</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>174</v>
       </c>
       <c r="E75" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4523,25 +4583,25 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="B76">
-        <v>1985</v>
+        <v>1961</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -4550,50 +4610,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="B77">
-        <v>1968</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>199</v>
+        <v>1961</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B78">
-        <v>1978</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" t="s">
-        <v>276</v>
+        <v>1960</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -4604,22 +4661,22 @@
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B79">
-        <v>1978</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
+        <v>1960</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -4628,21 +4685,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B80">
-        <v>1985</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>1957</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -4653,22 +4710,22 @@
     </row>
     <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="B81">
-        <v>1985</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" t="s">
-        <v>39</v>
+        <v>1956</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -4677,46 +4734,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>2010</v>
+        <v>1951</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>193</v>
+        <v>88</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <f>IF(H82=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="B83">
-        <v>2012</v>
+        <v>1946</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>210</v>
+        <v>66</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83">
+        <f>IF(H83=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="B84">
-        <v>1968</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>212</v>
+        <v>1932</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -4725,23 +4808,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="B85">
-        <v>2018</v>
+        <v>1930</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
         <v>58</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="G85">
+        <f>IF(H85=1,1,"")</f>
         <v>1</v>
       </c>
       <c r="H85">
@@ -4749,12 +4833,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H1048576" xr:uid="{1209D6F3-44E8-1C48-8867-15FFCE46FDEB}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I85" xr:uid="{1209D6F3-44E8-1C48-8867-15FFCE46FDEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
+      <sortCondition descending="1" ref="B1:B85"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
     <sortCondition ref="A1:A101"/>
@@ -4767,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34569D29-182A-5C43-AA69-B87B803EB7CC}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4781,17 +4863,17 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,7 +4883,8 @@
       <c r="B2" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E2">
+      <c r="C2">
+        <f>VLOOKUP(A2,Lista!$A$2:$H$100,8,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4812,7 +4895,8 @@
       <c r="B3" s="13">
         <v>2611</v>
       </c>
-      <c r="E3">
+      <c r="C3">
+        <f>VLOOKUP(A3,Lista!$A$2:$H$100,8,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4823,7 +4907,8 @@
       <c r="B4" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E4">
+      <c r="C4">
+        <f>VLOOKUP(A4,Lista!$A$2:$H$100,8,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4834,6 +4919,10 @@
       <c r="B5" s="13">
         <v>2431</v>
       </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -4842,6 +4931,10 @@
       <c r="B6" s="13" t="s">
         <v>245</v>
       </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -4850,6 +4943,10 @@
       <c r="B7" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -4858,6 +4955,10 @@
       <c r="B8" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -4866,6 +4967,10 @@
       <c r="B9" s="13">
         <v>2621</v>
       </c>
+      <c r="C9">
+        <f>VLOOKUP(A9,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4874,15 +4979,23 @@
       <c r="B10" s="11">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>VLOOKUP(A10,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="13">
-        <v>2635</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
         <v>3412</v>
       </c>
     </row>
@@ -4893,6 +5006,10 @@
       <c r="B12" s="13">
         <v>3421</v>
       </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -4901,6 +5018,10 @@
       <c r="B13" s="13">
         <v>2120</v>
       </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -4909,313 +5030,465 @@
       <c r="B14" s="13">
         <v>2622</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>VLOOKUP(A14,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="13">
-        <v>2131</v>
+      <c r="B15" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="13">
         <v>5411</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>VLOOKUP(A17,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="11">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>VLOOKUP(A18,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="11">
         <v>522</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>VLOOKUP(A19,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B20" s="13">
         <v>2652</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>VLOOKUP(A20,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="13">
         <v>2411</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>VLOOKUP(A21,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="13">
         <v>3334</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>VLOOKUP(A22,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3">
         <v>3321</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>VLOOKUP(A23,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="13">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3331</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B25" s="10">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(A25,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="3">
         <v>2635</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>VLOOKUP(A27,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="12">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(A28,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="13">
         <v>5152</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>VLOOKUP(A29,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="13">
         <v>2221</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30">
+        <f>VLOOKUP(A30,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
         <v>3221</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="3">
         <v>214</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>VLOOKUP(A31,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>VLOOKUP(A32,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>VLOOKUP(A33,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="13">
         <v>2120</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34">
+        <f>VLOOKUP(A34,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
         <v>3314</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B35" s="13">
         <v>5142</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f>VLOOKUP(A35,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="13">
         <v>2262</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36">
+        <f>VLOOKUP(A36,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
         <v>3213</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B37" s="13">
         <v>2111</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f>VLOOKUP(A37,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="13">
-        <v>2266</v>
-      </c>
-      <c r="C38" s="13">
+        <v>2264</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
         <v>3255</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B39" s="13">
         <v>2266</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f>VLOOKUP(A39,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(A40,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>2165</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f>VLOOKUP(A41,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="13">
         <v>2114</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f>VLOOKUP(A42,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="13">
         <v>9122</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f>VLOOKUP(A43,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="13">
         <v>2633</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>VLOOKUP(A44,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B45" s="13">
         <v>5165</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f>VLOOKUP(A45,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="13">
         <v>2642</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f>VLOOKUP(A46,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(A47,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(A48,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="3">
         <v>2635</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f>VLOOKUP(A49,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>VLOOKUP(A50,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B51" s="13">
         <v>2250</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51">
+        <f>VLOOKUP(A51,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
         <v>3240</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -5223,266 +5496,399 @@
         <v>221</v>
       </c>
       <c r="C52">
+        <f>VLOOKUP(A52,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>3256</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B53" s="13">
         <v>8321</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f>VLOOKUP(A53,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B54" s="13">
         <v>2621</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f>VLOOKUP(A54,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B55" s="13">
         <v>2652</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f>VLOOKUP(A55,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="13">
         <v>2265</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f>VLOOKUP(A56,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57">
+        <f>VLOOKUP(A57,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="16">
         <v>7541</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B58" s="14">
         <v>2261</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58">
+        <f>VLOOKUP(A58,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
         <v>3251</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B59" s="13">
         <v>2359</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f>VLOOKUP(A59,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f>VLOOKUP(A60,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B61" s="13">
         <v>6225</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f>VLOOKUP(A61,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B62" s="13">
         <v>2634</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f>VLOOKUP(A62,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="13">
         <v>2431</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>VLOOKUP(A63,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B64" s="13">
         <v>2113</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64">
+        <f>VLOOKUP(A64,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="13">
         <v>2656</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f>VLOOKUP(A65,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f>VLOOKUP(A66,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="13">
         <v>2652</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f>VLOOKUP(A67,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B68" s="3">
         <v>3322</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f>VLOOKUP(A68,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B69" s="13">
         <v>3253</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f>VLOOKUP(A69,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f>VLOOKUP(A70,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B71" s="13">
         <v>2632</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f>VLOOKUP(A71,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f>VLOOKUP(A72,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B73" s="13">
         <v>8322</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f>VLOOKUP(A73,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B74" s="13">
         <v>3343</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f>VLOOKUP(A74,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B75" s="13">
         <v>3214</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f>VLOOKUP(A75,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B76" s="13">
         <v>3211</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f>VLOOKUP(A76,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP(A77,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B78" s="3">
         <v>3313</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f>VLOOKUP(A78,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="13">
         <v>3435</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f>VLOOKUP(A79,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f>VLOOKUP(A80,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="13">
         <v>3257</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f>VLOOKUP(A81,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B82" s="13">
         <v>2643</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f>VLOOKUP(A82,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B83" s="13">
         <v>5113</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f>VLOOKUP(A83,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(A84,Lista!$A$2:$H$100,8,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E84" xr:uid="{34569D29-182A-5C43-AA69-B87B803EB7CC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5513,7 +5919,7 @@
         <v>1930</v>
       </c>
       <c r="B2">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A2)</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5522,7 +5928,7 @@
         <v>1931</v>
       </c>
       <c r="B3">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A3)+B2</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A3)+B2</f>
         <v>1</v>
       </c>
     </row>
@@ -5531,7 +5937,7 @@
         <v>1932</v>
       </c>
       <c r="B4">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A4)+B3</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A4)+B3</f>
         <v>2</v>
       </c>
     </row>
@@ -5540,7 +5946,7 @@
         <v>1933</v>
       </c>
       <c r="B5">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A5)+B4</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A5)+B4</f>
         <v>2</v>
       </c>
     </row>
@@ -5549,7 +5955,7 @@
         <v>1934</v>
       </c>
       <c r="B6">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A6)+B5</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A6)+B5</f>
         <v>2</v>
       </c>
     </row>
@@ -5558,7 +5964,7 @@
         <v>1935</v>
       </c>
       <c r="B7">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A7)+B6</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A7)+B6</f>
         <v>2</v>
       </c>
     </row>
@@ -5567,7 +5973,7 @@
         <v>1936</v>
       </c>
       <c r="B8">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A8)+B7</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A8)+B7</f>
         <v>2</v>
       </c>
     </row>
@@ -5576,7 +5982,7 @@
         <v>1937</v>
       </c>
       <c r="B9">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A9)+B8</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A9)+B8</f>
         <v>2</v>
       </c>
     </row>
@@ -5585,7 +5991,7 @@
         <v>1938</v>
       </c>
       <c r="B10">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A10)+B9</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A10)+B9</f>
         <v>2</v>
       </c>
     </row>
@@ -5594,7 +6000,7 @@
         <v>1939</v>
       </c>
       <c r="B11">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A11)+B10</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A11)+B10</f>
         <v>2</v>
       </c>
     </row>
@@ -5603,7 +6009,7 @@
         <v>1940</v>
       </c>
       <c r="B12">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A12)+B11</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A12)+B11</f>
         <v>2</v>
       </c>
     </row>
@@ -5612,7 +6018,7 @@
         <v>1941</v>
       </c>
       <c r="B13">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A13)+B12</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A13)+B12</f>
         <v>2</v>
       </c>
     </row>
@@ -5621,7 +6027,7 @@
         <v>1942</v>
       </c>
       <c r="B14">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A14)+B13</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A14)+B13</f>
         <v>2</v>
       </c>
     </row>
@@ -5630,7 +6036,7 @@
         <v>1943</v>
       </c>
       <c r="B15">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A15)+B14</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A15)+B14</f>
         <v>2</v>
       </c>
     </row>
@@ -5639,7 +6045,7 @@
         <v>1944</v>
       </c>
       <c r="B16">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A16)+B15</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A16)+B15</f>
         <v>2</v>
       </c>
     </row>
@@ -5648,7 +6054,7 @@
         <v>1945</v>
       </c>
       <c r="B17">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A17)+B16</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A17)+B16</f>
         <v>2</v>
       </c>
     </row>
@@ -5657,7 +6063,7 @@
         <v>1946</v>
       </c>
       <c r="B18">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A18)+B17</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A18)+B17</f>
         <v>3</v>
       </c>
     </row>
@@ -5666,7 +6072,7 @@
         <v>1947</v>
       </c>
       <c r="B19">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A19)+B18</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A19)+B18</f>
         <v>3</v>
       </c>
     </row>
@@ -5675,7 +6081,7 @@
         <v>1948</v>
       </c>
       <c r="B20">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A20)+B19</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A20)+B19</f>
         <v>3</v>
       </c>
     </row>
@@ -5684,7 +6090,7 @@
         <v>1949</v>
       </c>
       <c r="B21">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A21)+B20</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A21)+B20</f>
         <v>3</v>
       </c>
     </row>
@@ -5693,7 +6099,7 @@
         <v>1950</v>
       </c>
       <c r="B22">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A22)+B21</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A22)+B21</f>
         <v>3</v>
       </c>
     </row>
@@ -5702,7 +6108,7 @@
         <v>1951</v>
       </c>
       <c r="B23">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A23)+B22</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A23)+B22</f>
         <v>4</v>
       </c>
     </row>
@@ -5711,7 +6117,7 @@
         <v>1952</v>
       </c>
       <c r="B24">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A24)+B23</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A24)+B23</f>
         <v>4</v>
       </c>
     </row>
@@ -5720,7 +6126,7 @@
         <v>1953</v>
       </c>
       <c r="B25">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A25)+B24</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A25)+B24</f>
         <v>4</v>
       </c>
     </row>
@@ -5729,7 +6135,7 @@
         <v>1954</v>
       </c>
       <c r="B26">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A26)+B25</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A26)+B25</f>
         <v>4</v>
       </c>
     </row>
@@ -5738,7 +6144,7 @@
         <v>1955</v>
       </c>
       <c r="B27">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A27)+B26</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A27)+B26</f>
         <v>4</v>
       </c>
     </row>
@@ -5747,7 +6153,7 @@
         <v>1956</v>
       </c>
       <c r="B28">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A28)+B27</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A28)+B27</f>
         <v>5</v>
       </c>
     </row>
@@ -5756,7 +6162,7 @@
         <v>1957</v>
       </c>
       <c r="B29">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A29)+B28</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A29)+B28</f>
         <v>6</v>
       </c>
     </row>
@@ -5765,7 +6171,7 @@
         <v>1958</v>
       </c>
       <c r="B30">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A30)+B29</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A30)+B29</f>
         <v>6</v>
       </c>
     </row>
@@ -5774,7 +6180,7 @@
         <v>1959</v>
       </c>
       <c r="B31">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A31)+B30</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A31)+B30</f>
         <v>6</v>
       </c>
     </row>
@@ -5783,7 +6189,7 @@
         <v>1960</v>
       </c>
       <c r="B32">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A32)+B31</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A32)+B31</f>
         <v>8</v>
       </c>
     </row>
@@ -5792,7 +6198,7 @@
         <v>1961</v>
       </c>
       <c r="B33">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A33)+B32</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A33)+B32</f>
         <v>10</v>
       </c>
     </row>
@@ -5801,7 +6207,7 @@
         <v>1962</v>
       </c>
       <c r="B34">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A34)+B33</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A34)+B33</f>
         <v>13</v>
       </c>
     </row>
@@ -5810,7 +6216,7 @@
         <v>1963</v>
       </c>
       <c r="B35">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A35)+B34</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A35)+B34</f>
         <v>13</v>
       </c>
     </row>
@@ -5819,7 +6225,7 @@
         <v>1964</v>
       </c>
       <c r="B36">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A36)+B35</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A36)+B35</f>
         <v>15</v>
       </c>
     </row>
@@ -5828,7 +6234,7 @@
         <v>1965</v>
       </c>
       <c r="B37">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A37)+B36</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A37)+B36</f>
         <v>21</v>
       </c>
     </row>
@@ -5837,7 +6243,7 @@
         <v>1966</v>
       </c>
       <c r="B38">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A38)+B37</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A38)+B37</f>
         <v>24</v>
       </c>
     </row>
@@ -5846,7 +6252,7 @@
         <v>1967</v>
       </c>
       <c r="B39">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A39)+B38</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A39)+B38</f>
         <v>26</v>
       </c>
     </row>
@@ -5855,7 +6261,7 @@
         <v>1968</v>
       </c>
       <c r="B40">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A40)+B39</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A40)+B39</f>
         <v>30</v>
       </c>
     </row>
@@ -5864,7 +6270,7 @@
         <v>1969</v>
       </c>
       <c r="B41">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A41)+B40</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A41)+B40</f>
         <v>33</v>
       </c>
     </row>
@@ -5873,7 +6279,7 @@
         <v>1970</v>
       </c>
       <c r="B42">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A42)+B41</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A42)+B41</f>
         <v>33</v>
       </c>
     </row>
@@ -5882,7 +6288,7 @@
         <v>1971</v>
       </c>
       <c r="B43">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A43)+B42</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A43)+B42</f>
         <v>33</v>
       </c>
     </row>
@@ -5891,7 +6297,7 @@
         <v>1972</v>
       </c>
       <c r="B44">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A44)+B43</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A44)+B43</f>
         <v>34</v>
       </c>
     </row>
@@ -5900,7 +6306,7 @@
         <v>1973</v>
       </c>
       <c r="B45">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A45)+B44</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A45)+B44</f>
         <v>35</v>
       </c>
     </row>
@@ -5909,7 +6315,7 @@
         <v>1974</v>
       </c>
       <c r="B46">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A46)+B45</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A46)+B45</f>
         <v>35</v>
       </c>
     </row>
@@ -5918,7 +6324,7 @@
         <v>1975</v>
       </c>
       <c r="B47">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A47)+B46</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A47)+B46</f>
         <v>36</v>
       </c>
     </row>
@@ -5927,7 +6333,7 @@
         <v>1976</v>
       </c>
       <c r="B48">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A48)+B47</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A48)+B47</f>
         <v>37</v>
       </c>
     </row>
@@ -5936,7 +6342,7 @@
         <v>1977</v>
       </c>
       <c r="B49">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A49)+B48</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A49)+B48</f>
         <v>37</v>
       </c>
     </row>
@@ -5945,7 +6351,7 @@
         <v>1978</v>
       </c>
       <c r="B50">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A50)+B49</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A50)+B49</f>
         <v>44</v>
       </c>
     </row>
@@ -5954,7 +6360,7 @@
         <v>1979</v>
       </c>
       <c r="B51">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A51)+B50</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A51)+B50</f>
         <v>48</v>
       </c>
     </row>
@@ -5963,7 +6369,7 @@
         <v>1980</v>
       </c>
       <c r="B52">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A52)+B51</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A52)+B51</f>
         <v>50</v>
       </c>
     </row>
@@ -5972,7 +6378,7 @@
         <v>1981</v>
       </c>
       <c r="B53">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A53)+B52</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A53)+B52</f>
         <v>51</v>
       </c>
     </row>
@@ -5981,7 +6387,7 @@
         <v>1982</v>
       </c>
       <c r="B54">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A54)+B53</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A54)+B53</f>
         <v>51</v>
       </c>
     </row>
@@ -5990,7 +6396,7 @@
         <v>1983</v>
       </c>
       <c r="B55">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A55)+B54</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A55)+B54</f>
         <v>51</v>
       </c>
     </row>
@@ -5999,7 +6405,7 @@
         <v>1984</v>
       </c>
       <c r="B56">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A56)+B55</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A56)+B55</f>
         <v>53</v>
       </c>
     </row>
@@ -6008,7 +6414,7 @@
         <v>1985</v>
       </c>
       <c r="B57">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A57)+B56</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A57)+B56</f>
         <v>59</v>
       </c>
     </row>
@@ -6017,7 +6423,7 @@
         <v>1986</v>
       </c>
       <c r="B58">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A58)+B57</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A58)+B57</f>
         <v>59</v>
       </c>
     </row>
@@ -6026,7 +6432,7 @@
         <v>1987</v>
       </c>
       <c r="B59">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A59)+B58</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A59)+B58</f>
         <v>60</v>
       </c>
     </row>
@@ -6035,7 +6441,7 @@
         <v>1988</v>
       </c>
       <c r="B60">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A60)+B59</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A60)+B59</f>
         <v>60</v>
       </c>
     </row>
@@ -6044,7 +6450,7 @@
         <v>1989</v>
       </c>
       <c r="B61">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A61)+B60</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A61)+B60</f>
         <v>60</v>
       </c>
     </row>
@@ -6053,7 +6459,7 @@
         <v>1990</v>
       </c>
       <c r="B62">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A62)+B61</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A62)+B61</f>
         <v>60</v>
       </c>
     </row>
@@ -6062,7 +6468,7 @@
         <v>1991</v>
       </c>
       <c r="B63">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A63)+B62</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A63)+B62</f>
         <v>60</v>
       </c>
     </row>
@@ -6071,7 +6477,7 @@
         <v>1992</v>
       </c>
       <c r="B64">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A64)+B63</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A64)+B63</f>
         <v>60</v>
       </c>
     </row>
@@ -6080,7 +6486,7 @@
         <v>1993</v>
       </c>
       <c r="B65">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A65)+B64</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A65)+B64</f>
         <v>61</v>
       </c>
     </row>
@@ -6089,7 +6495,7 @@
         <v>1994</v>
       </c>
       <c r="B66">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A66)+B65</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A66)+B65</f>
         <v>61</v>
       </c>
     </row>
@@ -6098,7 +6504,7 @@
         <v>1995</v>
       </c>
       <c r="B67">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A67)+B66</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A67)+B66</f>
         <v>61</v>
       </c>
     </row>
@@ -6107,7 +6513,7 @@
         <v>1996</v>
       </c>
       <c r="B68">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A68)+B67</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A68)+B67</f>
         <v>61</v>
       </c>
     </row>
@@ -6116,7 +6522,7 @@
         <v>1997</v>
       </c>
       <c r="B69">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A69)+B68</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A69)+B68</f>
         <v>61</v>
       </c>
     </row>
@@ -6125,7 +6531,7 @@
         <v>1998</v>
       </c>
       <c r="B70">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A70)+B69</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A70)+B69</f>
         <v>62</v>
       </c>
     </row>
@@ -6134,7 +6540,7 @@
         <v>1999</v>
       </c>
       <c r="B71">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A71)+B70</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A71)+B70</f>
         <v>62</v>
       </c>
     </row>
@@ -6143,7 +6549,7 @@
         <v>2000</v>
       </c>
       <c r="B72">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A72)+B71</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A72)+B71</f>
         <v>62</v>
       </c>
     </row>
@@ -6152,7 +6558,7 @@
         <v>2001</v>
       </c>
       <c r="B73">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A73)+B72</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A73)+B72</f>
         <v>64</v>
       </c>
     </row>
@@ -6161,7 +6567,7 @@
         <v>2002</v>
       </c>
       <c r="B74">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A74)+B73</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A74)+B73</f>
         <v>65</v>
       </c>
     </row>
@@ -6170,7 +6576,7 @@
         <v>2003</v>
       </c>
       <c r="B75">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A75)+B74</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A75)+B74</f>
         <v>65</v>
       </c>
     </row>
@@ -6179,7 +6585,7 @@
         <v>2004</v>
       </c>
       <c r="B76">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A76)+B75</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A76)+B75</f>
         <v>65</v>
       </c>
     </row>
@@ -6188,7 +6594,7 @@
         <v>2005</v>
       </c>
       <c r="B77">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A77)+B76</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A77)+B76</f>
         <v>65</v>
       </c>
     </row>
@@ -6197,7 +6603,7 @@
         <v>2006</v>
       </c>
       <c r="B78">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A78)+B77</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A78)+B77</f>
         <v>65</v>
       </c>
     </row>
@@ -6206,7 +6612,7 @@
         <v>2007</v>
       </c>
       <c r="B79">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A79)+B78</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A79)+B78</f>
         <v>66</v>
       </c>
     </row>
@@ -6215,7 +6621,7 @@
         <v>2008</v>
       </c>
       <c r="B80">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A80)+B79</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A80)+B79</f>
         <v>68</v>
       </c>
     </row>
@@ -6224,7 +6630,7 @@
         <v>2009</v>
       </c>
       <c r="B81">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A81)+B80</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A81)+B80</f>
         <v>70</v>
       </c>
     </row>
@@ -6233,7 +6639,7 @@
         <v>2010</v>
       </c>
       <c r="B82">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A82)+B81</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A82)+B81</f>
         <v>73</v>
       </c>
     </row>
@@ -6242,7 +6648,7 @@
         <v>2011</v>
       </c>
       <c r="B83">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A83)+B82</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A83)+B82</f>
         <v>75</v>
       </c>
     </row>
@@ -6251,7 +6657,7 @@
         <v>2012</v>
       </c>
       <c r="B84">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A84)+B83</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A84)+B83</f>
         <v>77</v>
       </c>
     </row>
@@ -6260,7 +6666,7 @@
         <v>2013</v>
       </c>
       <c r="B85">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A85)+B84</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A85)+B84</f>
         <v>78</v>
       </c>
     </row>
@@ -6269,7 +6675,7 @@
         <v>2014</v>
       </c>
       <c r="B86">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A86)+B85</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A86)+B85</f>
         <v>78</v>
       </c>
     </row>
@@ -6278,7 +6684,7 @@
         <v>2015</v>
       </c>
       <c r="B87">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A87)+B86</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A87)+B86</f>
         <v>78</v>
       </c>
     </row>
@@ -6287,7 +6693,7 @@
         <v>2016</v>
       </c>
       <c r="B88">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A88)+B87</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A88)+B87</f>
         <v>78</v>
       </c>
     </row>
@@ -6296,7 +6702,7 @@
         <v>2017</v>
       </c>
       <c r="B89">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A89)+B88</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A89)+B88</f>
         <v>78</v>
       </c>
     </row>
@@ -6305,7 +6711,7 @@
         <v>2018</v>
       </c>
       <c r="B90">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A90)+B89</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A90)+B89</f>
         <v>81</v>
       </c>
     </row>
@@ -6314,7 +6720,7 @@
         <v>2019</v>
       </c>
       <c r="B91">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A91)+B90</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A91)+B90</f>
         <v>81</v>
       </c>
     </row>
@@ -6323,7 +6729,7 @@
         <v>2020</v>
       </c>
       <c r="B92">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A92)+B91</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A92)+B91</f>
         <v>82</v>
       </c>
     </row>
@@ -6332,7 +6738,7 @@
         <v>2021</v>
       </c>
       <c r="B93">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A93)+B92</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A93)+B92</f>
         <v>83</v>
       </c>
     </row>
@@ -6341,7 +6747,7 @@
         <v>2022</v>
       </c>
       <c r="B94">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A94)+B93</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A94)+B93</f>
         <v>83</v>
       </c>
     </row>
@@ -6350,7 +6756,7 @@
         <v>2023</v>
       </c>
       <c r="B95">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A95)+B94</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A95)+B94</f>
         <v>84</v>
       </c>
     </row>
@@ -6359,7 +6765,7 @@
         <v>2024</v>
       </c>
       <c r="B96">
-        <f>COUNTIF('Lista '!$B$2:$B$100,'Evolução Tempo'!A96)+B95</f>
+        <f>COUNTIF(Lista!$B$2:$B$100,'Evolução Tempo'!A96)+B95</f>
         <v>84</v>
       </c>
     </row>
@@ -6374,7 +6780,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6509,12 +6915,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -6524,12 +6930,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -6539,7 +6945,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
